--- a/00_config/xlsx/src.xlsx
+++ b/00_config/xlsx/src.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6B147-9F6A-485F-908B-675A0EAD9919}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4379A-FBAE-4D20-9DA1-D615F79073C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="476">
   <si>
     <t>源系统</t>
   </si>
@@ -999,19 +999,10 @@
     <t>FACT_SALE_KPI</t>
   </si>
   <si>
-    <t>H_ACT2MEMBER</t>
-  </si>
-  <si>
     <t>H_MEMBER</t>
   </si>
   <si>
-    <t>H_PREMEMBER</t>
-  </si>
-  <si>
     <t>H_SHMEMBER</t>
-  </si>
-  <si>
-    <t>HT</t>
   </si>
   <si>
     <t>K_CST2ROOM</t>
@@ -1120,10 +1111,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TEST01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CB_CONTRACT</t>
   </si>
   <si>
@@ -1197,110 +1184,26 @@
     <t>Hive</t>
   </si>
   <si>
-    <t>src.src_banner</t>
-  </si>
-  <si>
     <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>src.src_broker</t>
-  </si>
-  <si>
-    <t>src.src_broker_address</t>
-  </si>
-  <si>
-    <t>src.src_broker_approve</t>
   </si>
   <si>
     <t>case when APPLY_TIME is null then APPROVE_TIME else APPLY_TIME end</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>src.src_broker_client_history</t>
-  </si>
-  <si>
-    <t>src.src_broker_collect</t>
-  </si>
-  <si>
-    <t>src.src_broker_tag</t>
-  </si>
-  <si>
-    <t>src.src_building</t>
-  </si>
-  <si>
-    <t>src.src_building_housetype</t>
-  </si>
-  <si>
-    <t>src.src_building_item</t>
-  </si>
-  <si>
-    <t>src.src_client</t>
-  </si>
-  <si>
-    <t>src.src_client_baseinfo</t>
-  </si>
-  <si>
-    <t>src.src_client_building_filing</t>
-  </si>
-  <si>
-    <t>src.src_client_building_relation</t>
-  </si>
-  <si>
     <t>UPDATE_TIME</t>
   </si>
   <si>
-    <t>src.src_client_building_sale</t>
-  </si>
-  <si>
-    <t>src.src_client_building_visited</t>
-  </si>
-  <si>
-    <t>src.src_hot</t>
-  </si>
-  <si>
-    <t>src.src_log_user_login_history</t>
-  </si>
-  <si>
     <t>LOGIN_AT</t>
   </si>
   <si>
-    <t>src.src_msg</t>
-  </si>
-  <si>
-    <t>src.src_operation_log</t>
-  </si>
-  <si>
     <t>OPERATETIME</t>
-  </si>
-  <si>
-    <t>src.src_phone_userid_mapping</t>
-  </si>
-  <si>
-    <t>src.src_sys_attach</t>
-  </si>
-  <si>
-    <t>src.src_sys_city</t>
-  </si>
-  <si>
-    <t>src.src_sys_district</t>
-  </si>
-  <si>
-    <t>src.src_sys_province</t>
-  </si>
-  <si>
-    <t>src.src_sys_user_q</t>
-  </si>
-  <si>
-    <t>src.src_t_user</t>
   </si>
   <si>
     <t>case CREATE_TIME when 'DEMO' then null else CREATE_TIME end</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>src.src_ver_code</t>
-  </si>
-  <si>
     <t>PSWMODIFYTIME</t>
   </si>
   <si>
@@ -1517,91 +1420,6 @@
     <t>qmjjr_broker</t>
   </si>
   <si>
-    <t>dbo.broker</t>
-  </si>
-  <si>
-    <t>dbo.broker_address</t>
-  </si>
-  <si>
-    <t>dbo.broker_approve</t>
-  </si>
-  <si>
-    <t>dbo.broker_client_history</t>
-  </si>
-  <si>
-    <t>dbo.broker_collect</t>
-  </si>
-  <si>
-    <t>dbo.broker_tag</t>
-  </si>
-  <si>
-    <t>dbo.building</t>
-  </si>
-  <si>
-    <t>dbo.building_housetype</t>
-  </si>
-  <si>
-    <t>dbo.building_item</t>
-  </si>
-  <si>
-    <t>dbo.client</t>
-  </si>
-  <si>
-    <t>dbo.client_baseinfo</t>
-  </si>
-  <si>
-    <t>dbo.client_building_filing</t>
-  </si>
-  <si>
-    <t>dbo.client_building_relation</t>
-  </si>
-  <si>
-    <t>dbo.client_building_sale</t>
-  </si>
-  <si>
-    <t>dbo.client_building_visited</t>
-  </si>
-  <si>
-    <t>dbo.hot</t>
-  </si>
-  <si>
-    <t>dbo.log_user_login_history</t>
-  </si>
-  <si>
-    <t>dbo.msg</t>
-  </si>
-  <si>
-    <t>dbo.operation_log</t>
-  </si>
-  <si>
-    <t>dbo.phone_userid_mapping</t>
-  </si>
-  <si>
-    <t>dbo.sys_attach</t>
-  </si>
-  <si>
-    <t>dbo.sys_city</t>
-  </si>
-  <si>
-    <t>dbo.sys_district</t>
-  </si>
-  <si>
-    <t>dbo.sys_province</t>
-  </si>
-  <si>
-    <t>dbo.sys_user</t>
-  </si>
-  <si>
-    <t>dbo.t_user</t>
-  </si>
-  <si>
-    <t>dbo.ver_code</t>
-  </si>
-  <si>
-    <t>dbo.banner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1696,6 +1514,100 @@
   <si>
     <t>ORACLE</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1_property_src</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1_xcy_src</t>
+  </si>
+  <si>
+    <t>p1_xcy_src</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>broker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>broker_address</t>
+  </si>
+  <si>
+    <t>broker_approve</t>
+  </si>
+  <si>
+    <t>broker_client_history</t>
+  </si>
+  <si>
+    <t>broker_collect</t>
+  </si>
+  <si>
+    <t>broker_tag</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>building_housetype</t>
+  </si>
+  <si>
+    <t>building_item</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>client_baseinfo</t>
+  </si>
+  <si>
+    <t>client_building_filing</t>
+  </si>
+  <si>
+    <t>client_building_relation</t>
+  </si>
+  <si>
+    <t>client_building_sale</t>
+  </si>
+  <si>
+    <t>client_building_visited</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>log_user_login_history</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>operation_log</t>
+  </si>
+  <si>
+    <t>phone_userid_mapping</t>
+  </si>
+  <si>
+    <t>sys_attach</t>
+  </si>
+  <si>
+    <t>sys_city</t>
+  </si>
+  <si>
+    <t>sys_district</t>
+  </si>
+  <si>
+    <t>sys_province</t>
+  </si>
+  <si>
+    <t>t_user</t>
+  </si>
+  <si>
+    <t>ver_code</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1772,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{E7B18C56-91AF-4CB4-A78D-F7D449E3CA5D}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1937,116 +1849,6 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -2395,7 +2197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2403,8 +2205,9 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -2438,19 +2241,20 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>318</v>
+        <v>446</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>CONCATENATE(B2,"_SRC_",C2)</f>
+        <v>DWODS_MYSOFT_SRC_CB_CONTRACT</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -2461,7 +2265,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>268</v>
@@ -2470,10 +2274,11 @@
         <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>446</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F51" si="0">CONCATENATE(B3,"_SRC_",C3)</f>
+        <v>DWODS_MYSOFT_SRC_CB_CONTRACT2HTTYPE</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -2482,7 +2287,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>268</v>
@@ -2491,10 +2296,11 @@
         <v>270</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>270</v>
+        <v>446</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_FKSPTYPE</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -2503,7 +2309,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>268</v>
@@ -2512,10 +2318,11 @@
         <v>271</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>271</v>
+        <v>446</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_HTALTER</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -2526,7 +2333,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>268</v>
@@ -2535,10 +2342,11 @@
         <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>272</v>
+        <v>446</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_HTBALANCE</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -2549,7 +2357,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>268</v>
@@ -2558,10 +2366,11 @@
         <v>273</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>273</v>
+        <v>446</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_HTBALANCEADJUST</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2572,7 +2381,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>268</v>
@@ -2581,10 +2390,11 @@
         <v>274</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>274</v>
+        <v>446</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_HTTYPE</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -2593,7 +2403,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>268</v>
@@ -2602,10 +2412,11 @@
         <v>275</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>275</v>
+        <v>446</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_HTTYPE_HISTORY</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -2614,7 +2425,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>268</v>
@@ -2623,10 +2434,11 @@
         <v>276</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>276</v>
+        <v>446</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_CB_PRODUCT</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -2635,19 +2447,20 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>279</v>
+        <v>446</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_DEL_H_ACT2MEMBER</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -2656,19 +2469,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>281</v>
+        <v>446</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_DEL_H_PREMEMBER</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2679,19 +2493,20 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>283</v>
+        <v>446</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_DEL_HT</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -2700,7 +2515,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>268</v>
@@ -2709,10 +2524,11 @@
         <v>277</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>277</v>
+        <v>446</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_EP_ROOM</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -2721,7 +2537,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>268</v>
@@ -2730,10 +2546,11 @@
         <v>278</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>278</v>
+        <v>446</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_FACT_SALE_KPI</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -2742,19 +2559,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>280</v>
+        <v>446</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_H_MEMBER</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -2765,19 +2583,20 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>282</v>
+        <v>446</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_H_SHMEMBER</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2788,19 +2607,20 @@
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>284</v>
+        <v>446</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_K_CST2ROOM</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2811,19 +2631,20 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>285</v>
+        <v>446</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_K_CSTTOUCH</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -2834,19 +2655,20 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>286</v>
+        <v>446</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_K_RECEIVE</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -2857,19 +2679,20 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>287</v>
+        <v>446</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_MYBUSINESSUNIT</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -2878,19 +2701,20 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>288</v>
+        <v>446</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_MYUSER</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -2901,19 +2725,20 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>289</v>
+        <v>446</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_ACTIVITYREADY</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -2924,19 +2749,20 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>290</v>
+        <v>446</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_BIZOBJECTSETTING</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -2945,19 +2771,20 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>291</v>
+        <v>446</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_BUILDING</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -2968,19 +2795,20 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>292</v>
+        <v>446</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_BUILDPRODUCTTYPE</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -2989,19 +2817,20 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>293</v>
+        <v>446</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_CARD2JIGUAN</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -3010,19 +2839,20 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>294</v>
+        <v>446</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_CONTACT</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -3031,19 +2861,20 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>295</v>
+        <v>446</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_CSTATTRIBUTE</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -3054,19 +2885,20 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>296</v>
+        <v>446</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_CSTLOG</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -3077,19 +2909,20 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>297</v>
+        <v>446</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_CUSTOMER</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -3100,19 +2933,20 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>298</v>
+        <v>446</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_PROJECT</v>
       </c>
       <c r="G32" s="3">
         <v>1</v>
@@ -3121,19 +2955,20 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>299</v>
+        <v>446</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_P_ROOM</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -3144,19 +2979,20 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>300</v>
+        <v>446</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_PAY</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -3165,19 +3001,20 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>301</v>
+        <v>446</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_BOOKING</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -3188,19 +3025,20 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>302</v>
+        <v>446</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_BOOKING2CST</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -3209,19 +3047,20 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>303</v>
+        <v>446</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_CONTRACT</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -3232,19 +3071,20 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>304</v>
+        <v>446</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_GETIN</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -3255,19 +3095,20 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>305</v>
+        <v>446</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_LEAD</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -3278,19 +3119,20 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>306</v>
+        <v>446</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_OPP2GJJL</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -3301,19 +3143,20 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>307</v>
+        <v>446</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_OPP2ROOM</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -3322,19 +3165,20 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>308</v>
+        <v>446</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_OPPORTUNITY</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3345,19 +3189,20 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>309</v>
+        <v>446</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_ORDER</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -3368,19 +3213,20 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>310</v>
+        <v>446</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_REPAIRERPDATA_CSTMOBILE</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -3389,19 +3235,20 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>311</v>
+        <v>446</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_ROOMSELECTLOG</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -3410,19 +3257,20 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>312</v>
+        <v>446</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_SALEMODILOG</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -3431,19 +3279,20 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>313</v>
+        <v>446</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_SALESBUDGET</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -3452,19 +3301,20 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>314</v>
+        <v>446</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_TRADE</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -3473,19 +3323,20 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>315</v>
+        <v>446</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_TRADE2CST</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3494,19 +3345,20 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>316</v>
+        <v>446</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_TRADE2CST_LOG</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -3517,19 +3369,20 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>317</v>
+        <v>446</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DWODS_MYSOFT_SRC_S_VOUCHER</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -4778,7 +4631,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4786,9 +4639,10 @@
     <col min="1" max="1" width="14.75" style="11" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" customWidth="1"/>
     <col min="3" max="3" width="24.625" style="15" customWidth="1"/>
-    <col min="4" max="6" width="17.875" style="15" customWidth="1"/>
+    <col min="4" max="5" width="17.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="32.25" style="15" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="67.125" style="15" customWidth="1"/>
     <col min="9" max="9" width="21.75" style="15" customWidth="1"/>
     <col min="10" max="16384" width="9" style="15"/>
   </cols>
@@ -4801,7 +4655,7 @@
         <v>264</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -4810,7 +4664,7 @@
         <v>266</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -4819,54 +4673,56 @@
         <v>2</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>477</v>
+        <v>337</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>CONCATENATE(B2,"_src_",C2)</f>
+        <v>xcfc_src_erp_myuser</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>478</v>
+        <v>337</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f>CONCATENATE(B3,"_src_",C3)</f>
+        <v>xcfc_src_erp_p_building</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>
@@ -4878,22 +4734,23 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>479</v>
+        <v>337</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f t="shared" ref="F4:F29" si="0">CONCATENATE(B4,"_src_",C4)</f>
+        <v>xcfc_src_erp_p_customer</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
@@ -4905,22 +4762,23 @@
     </row>
     <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>480</v>
+        <v>337</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_p_project</v>
       </c>
       <c r="G5" s="13">
         <v>0</v>
@@ -4932,22 +4790,23 @@
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>481</v>
+        <v>337</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_p_room</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
@@ -4959,49 +4818,51 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>482</v>
+        <v>337</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_contract</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>483</v>
+        <v>337</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_getin</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -5013,22 +4874,23 @@
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>484</v>
+        <v>337</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_opp2room</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
@@ -5038,22 +4900,23 @@
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>485</v>
+        <v>337</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_opportunity</v>
       </c>
       <c r="G10" s="13">
         <v>0</v>
@@ -5065,22 +4928,23 @@
     </row>
     <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>486</v>
+        <v>337</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_opportunityright</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
@@ -5090,22 +4954,23 @@
     </row>
     <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>487</v>
+        <v>337</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_order</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
@@ -5117,76 +4982,79 @@
     </row>
     <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>488</v>
+        <v>337</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_trade</v>
       </c>
       <c r="G13" s="13">
         <v>0</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>489</v>
+        <v>337</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_erp_s_voucher</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>490</v>
+        <v>337</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_attribute_item</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
@@ -5196,22 +5064,23 @@
     </row>
     <row r="16" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>491</v>
+        <v>337</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_attribute_project</v>
       </c>
       <c r="G16" s="13">
         <v>1</v>
@@ -5221,211 +5090,219 @@
     </row>
     <row r="17" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>492</v>
+        <v>337</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_customer</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>493</v>
+        <v>337</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_customer_collection</v>
       </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>494</v>
+        <v>337</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_customer_info</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>495</v>
+        <v>337</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_lead</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>496</v>
+        <v>337</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_lead_follow</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>497</v>
+        <v>337</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_lead_history</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>498</v>
+        <v>337</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_mobile_phone_info</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>499</v>
+        <v>337</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_nic_follow</v>
       </c>
       <c r="G24" s="13">
         <v>0</v>
@@ -5437,49 +5314,51 @@
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>500</v>
+        <v>337</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_niche</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>501</v>
+        <v>337</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_niche_form</v>
       </c>
       <c r="G26" s="13">
         <v>1</v>
@@ -5489,22 +5368,23 @@
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>502</v>
+        <v>337</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_m_project_user</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -5516,55 +5396,57 @@
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>503</v>
+        <v>337</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_sys_log</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>504</v>
+        <v>337</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>xcfc_src_sys_user</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="I29" s="14"/>
     </row>
@@ -5587,15 +5469,16 @@
   <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.875" style="11" customWidth="1"/>
     <col min="3" max="3" width="22" style="11" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="35" style="11" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="11" customWidth="1"/>
@@ -5610,7 +5493,7 @@
         <v>264</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -5619,7 +5502,7 @@
         <v>266</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -5630,48 +5513,50 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>386</v>
+        <v>337</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" s="15" t="str">
+        <f>CONCATENATE(B2,"_SRC_",C2)</f>
+        <v>SYSWINETS_SRC_BACKDAT</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>388</v>
+        <v>337</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="15" t="str">
+        <f t="shared" ref="F3:F60" si="0">CONCATENATE(B3,"_SRC_",C3)</f>
+        <v>SYSWINETS_SRC_BANKNW</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
@@ -5679,256 +5564,266 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>389</v>
+        <v>337</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILL</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>390</v>
+        <v>337</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILL_HISTORY</v>
       </c>
       <c r="G5" s="13">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>391</v>
+        <v>337</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLBOOK</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>392</v>
+        <v>337</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLBOOK_HISTORY</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>393</v>
+        <v>337</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLBOOKCONDITION</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>394</v>
+        <v>337</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLBOOKRELATION</v>
       </c>
       <c r="G9" s="13">
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>395</v>
+        <v>337</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLDETAILS</v>
       </c>
       <c r="G10" s="13">
         <v>0</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>396</v>
+        <v>337</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLDETAILS_HISTORY</v>
       </c>
       <c r="G11" s="13">
         <v>0</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>397</v>
+        <v>337</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLMAINBODY</v>
       </c>
       <c r="G12" s="13">
         <v>0</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>398</v>
+        <v>337</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLOUTPMODE</v>
       </c>
       <c r="G13" s="13">
         <v>1</v>
@@ -5937,22 +5832,23 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>399</v>
+        <v>337</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BILLTYPE</v>
       </c>
       <c r="G14" s="13">
         <v>1</v>
@@ -5961,74 +5857,77 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>400</v>
+        <v>337</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BTRECORD</v>
       </c>
       <c r="G15" s="13">
         <v>0</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>401</v>
+        <v>337</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BUD</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>402</v>
+        <v>337</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BUDTBDIM</v>
       </c>
       <c r="G17" s="13">
         <v>1</v>
@@ -6037,22 +5936,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>403</v>
+        <v>337</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_BUSPARA</v>
       </c>
       <c r="G18" s="13">
         <v>1</v>
@@ -6061,386 +5961,401 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>404</v>
+        <v>337</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CBACC</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>405</v>
+        <v>337</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CCC</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>406</v>
+        <v>337</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CCR</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>407</v>
+        <v>337</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CONTRACT</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>408</v>
+        <v>337</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CS_TAXINFO</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>409</v>
+        <v>337</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CST</v>
       </c>
       <c r="G24" s="13">
         <v>0</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>410</v>
+        <v>337</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTCNT</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>411</v>
+        <v>337</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTCOM</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>412</v>
+        <v>337</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTEVT</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>413</v>
+        <v>337</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTHTY</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>414</v>
+        <v>337</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTPER</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>415</v>
+        <v>337</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTREL</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>416</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>416</v>
+        <v>337</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CSTZLS</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>417</v>
+        <v>337</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_CTTPRITERMS</v>
       </c>
       <c r="G32" s="13">
         <v>0</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>418</v>
+        <v>337</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FI_AGGRDIMENSION</v>
       </c>
       <c r="G33" s="13">
         <v>1</v>
@@ -6449,22 +6364,23 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>419</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>419</v>
+        <v>337</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNBANK</v>
       </c>
       <c r="G34" s="13">
         <v>1</v>
@@ -6473,178 +6389,185 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>420</v>
+        <v>337</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNPAID</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>421</v>
+        <v>337</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNPAID_HISTORY</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>422</v>
+        <v>337</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNPAIDDET</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>423</v>
+        <v>337</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNPAIDDET_HISTORY</v>
       </c>
       <c r="G38" s="13">
         <v>0</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>424</v>
+        <v>337</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNPAIDEVT</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>425</v>
+        <v>337</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FNREV</v>
       </c>
       <c r="G40" s="13">
         <v>0</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>426</v>
+        <v>337</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FORMULATYPE</v>
       </c>
       <c r="G41" s="13">
         <v>1</v>
@@ -6653,22 +6576,23 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>427</v>
+        <v>337</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_FORMULAVARIABLE</v>
       </c>
       <c r="G42" s="13">
         <v>1</v>
@@ -6677,48 +6601,50 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>428</v>
+        <v>337</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_HOUSE</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>429</v>
+        <v>337</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_HOUSELAY</v>
       </c>
       <c r="G44" s="13">
         <v>1</v>
@@ -6727,22 +6653,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>430</v>
+        <v>337</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_IPITEM</v>
       </c>
       <c r="G45" s="13">
         <v>1</v>
@@ -6751,22 +6678,23 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>431</v>
+        <v>337</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_IPITEMDETAILS</v>
       </c>
       <c r="G46" s="13">
         <v>1</v>
@@ -6775,48 +6703,50 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>432</v>
+        <v>337</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_MEET</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>433</v>
+        <v>337</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_OP_OPDATA</v>
       </c>
       <c r="G48" s="13">
         <v>1</v>
@@ -6825,22 +6755,23 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>434</v>
+        <v>337</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_PAYTYPE</v>
       </c>
       <c r="G49" s="13">
         <v>1</v>
@@ -6849,126 +6780,131 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>435</v>
+        <v>337</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_PDETAIL</v>
       </c>
       <c r="G50" s="13">
         <v>0</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>436</v>
+        <v>337</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_POCKET</v>
       </c>
       <c r="G51" s="13">
         <v>0</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>437</v>
+        <v>337</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_POCKETDET</v>
       </c>
       <c r="G52" s="13">
         <v>0</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>438</v>
+        <v>337</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_RCR</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>439</v>
+        <v>337</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_RULEDEFINE</v>
       </c>
       <c r="G54" s="13">
         <v>1</v>
@@ -6977,144 +6913,150 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>440</v>
+        <v>337</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_TPAGREEMENT</v>
       </c>
       <c r="G55" s="13">
         <v>0</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>441</v>
+        <v>337</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_TPIPITEM</v>
       </c>
       <c r="G56" s="13">
         <v>1</v>
       </c>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>442</v>
+        <v>337</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_TPROGRAM</v>
       </c>
       <c r="G57" s="13">
         <v>1</v>
       </c>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>443</v>
+        <v>337</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_TRADING</v>
       </c>
       <c r="G58" s="13">
         <v>1</v>
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>444</v>
+        <v>337</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_TRADINGTYPE</v>
       </c>
       <c r="G59" s="13">
         <v>1</v>
       </c>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>445</v>
+        <v>337</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINETS_SRC_USES</v>
       </c>
       <c r="G60" s="13">
         <v>1</v>
@@ -7934,7 +7876,7 @@
   </sheetData>
   <autoFilter ref="A1:H331" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60" xr:uid="{FF36187D-4D52-44FF-B83E-46E0C7D56CAE}">
       <formula1>"Oracle,MySQL,SQL Server"</formula1>
     </dataValidation>
@@ -7959,16 +7901,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="14.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="11" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14" style="13" customWidth="1"/>
     <col min="8" max="8" width="69.75" style="11" customWidth="1"/>
     <col min="9" max="9" width="37.625" style="14" customWidth="1"/>
     <col min="10" max="16384" width="9" style="11"/>
@@ -7980,14 +7923,14 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>3</v>
@@ -7996,188 +7939,217 @@
         <v>2</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>342</v>
+      <c r="F2" s="12" t="str">
+        <f>CONCATENATE(B2,"_SRC_",C2)</f>
+        <v>qmjjr_broker_SRC_banner</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>344</v>
+      <c r="F3" s="12" t="str">
+        <f t="shared" ref="F3:F29" si="0">CONCATENATE(B3,"_SRC_",C3)</f>
+        <v>qmjjr_broker_SRC_broker</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>345</v>
+      <c r="F4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_broker_address</v>
       </c>
       <c r="G4" s="13">
         <v>0</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>346</v>
+      <c r="F5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_broker_approve</v>
       </c>
       <c r="G5" s="13">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>348</v>
+      <c r="F6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_broker_client_history</v>
       </c>
       <c r="G6" s="13">
         <v>0</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>349</v>
+      <c r="F7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_broker_collect</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>350</v>
+      <c r="F8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_broker_tag</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>351</v>
+      <c r="F9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_building</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
@@ -8185,19 +8157,23 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>352</v>
+      <c r="F10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_building_housetype</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
@@ -8205,19 +8181,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>353</v>
+      <c r="F11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_building_item</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
@@ -8225,19 +8205,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>354</v>
+      <c r="F12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_client</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
@@ -8245,19 +8229,23 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>355</v>
+      <c r="F13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_client_baseinfo</v>
       </c>
       <c r="G13" s="13">
         <v>1</v>
@@ -8266,203 +8254,239 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>356</v>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_client_building_filing</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_client_building_relation</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>340</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>359</v>
+      <c r="F16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_client_building_sale</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>360</v>
+      <c r="F17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_client_building_visited</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>361</v>
+      <c r="F18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_hot</v>
       </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_log_user_login_history</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>364</v>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_msg</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>365</v>
+      <c r="F21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_operation_log</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>367</v>
+      <c r="F22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_phone_userid_mapping</v>
       </c>
       <c r="G22" s="13">
         <v>1</v>
@@ -8471,19 +8495,23 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>368</v>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_sys_attach</v>
       </c>
       <c r="G23" s="13">
         <v>1</v>
@@ -8492,19 +8520,23 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>369</v>
+      <c r="F24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_sys_city</v>
       </c>
       <c r="G24" s="13">
         <v>1</v>
@@ -8513,19 +8545,23 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>370</v>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_sys_district</v>
       </c>
       <c r="G25" s="13">
         <v>1</v>
@@ -8534,19 +8570,23 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>371</v>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_sys_province</v>
       </c>
       <c r="G26" s="13">
         <v>1</v>
@@ -8555,71 +8595,83 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>372</v>
+      <c r="F27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_sys_user</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>373</v>
+      <c r="F28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_t_user</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>375</v>
+      <c r="F29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>qmjjr_broker_SRC_ver_code</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -8660,7 +8712,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -8705,17 +8757,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
@@ -8730,182 +8782,182 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -10350,10 +10402,10 @@
         <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
         <v>190</v>
@@ -10461,10 +10513,10 @@
         <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E13" t="s">
         <v>197</v>
@@ -10492,10 +10544,10 @@
         <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>225</v>
@@ -10520,10 +10572,10 @@
         <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E17" t="s">
         <v>198</v>
@@ -10709,10 +10761,10 @@
         <v>243</v>
       </c>
       <c r="C32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" t="s">
         <v>331</v>
-      </c>
-      <c r="D32" t="s">
-        <v>335</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>244</v>
@@ -10731,10 +10783,10 @@
         <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>246</v>
@@ -10797,7 +10849,7 @@
         <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>253</v>
@@ -10892,10 +10944,10 @@
         <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>260</v>
@@ -10941,10 +10993,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E55" t="s">
         <v>206</v>
@@ -10952,42 +11004,42 @@
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D74" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D75" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" t="s">
         <v>331</v>
-      </c>
-      <c r="D77" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D78" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/00_config/xlsx/src.xlsx
+++ b/00_config/xlsx/src.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4379A-FBAE-4D20-9DA1-D615F79073C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04218953-A800-4B2C-B0CF-2FBD38DDE470}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="load_cfg_my" sheetId="1" r:id="rId1"/>
-    <sheet name="load_cfg_ydac" sheetId="9" r:id="rId2"/>
-    <sheet name="load_cfg_sy" sheetId="10" r:id="rId3"/>
-    <sheet name="load_cfg_jjr" sheetId="8" r:id="rId4"/>
-    <sheet name="erqi" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId10"/>
+    <sheet name="load_cfg_test" sheetId="11" r:id="rId1"/>
+    <sheet name="load_cfg_my" sheetId="1" r:id="rId2"/>
+    <sheet name="load_cfg_ydac" sheetId="9" r:id="rId3"/>
+    <sheet name="load_cfg_sy" sheetId="10" r:id="rId4"/>
+    <sheet name="load_cfg_jjr" sheetId="8" r:id="rId5"/>
+    <sheet name="erqi" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">load_cfg_jjr!$A$1:$I$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">load_cfg_my!$A$1:$H$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">load_cfg_sy!$A$1:$H$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">load_cfg_jjr!$A$1:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">load_cfg_my!$A$1:$H$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">load_cfg_sy!$A$1:$H$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">load_cfg_test!$A$1:$H$282</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -109,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="478">
   <si>
     <t>源系统</t>
   </si>
@@ -1608,6 +1610,14 @@
   </si>
   <si>
     <t>ver_code</t>
+  </si>
+  <si>
+    <t>sql server</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1772,7 +1782,67 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{E7B18C56-91AF-4CB4-A78D-F7D449E3CA5D}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1849,6 +1919,36 @@
       </font>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -2192,12 +2292,2085 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165678C9-2A30-4562-9FE7-D424D79122B7}">
+  <dimension ref="A1:H277"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>CONCATENATE(B2,"_SRC_",C2)</f>
+        <v>DWODS_MYSOFT_SRC_CB_CONTRACT</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>CONCATENATE(B3,"_SRC_",C3)</f>
+        <v>DWODS_MYSOFT_SRC_CB_CONTRACT</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>CONCATENATE(B4,"_SRC_",C4)</f>
+        <v>DWODS_MYSOFT_SRC_CB_CONTRACT</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H277" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H282" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C2 C5:C1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C2 C5:C1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E32906-22D5-4384-96EE-D121882CD132}">
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" t="s">
+        <v>329</v>
+      </c>
+      <c r="D50" t="s">
+        <v>331</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>329</v>
+      </c>
+      <c r="D74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>330</v>
+      </c>
+      <c r="D75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>328</v>
+      </c>
+      <c r="D78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:E56">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B37:D73 B1:D35 C36:D36 B79:D1048576 B74:B78">
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:C78">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74:D78">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A383309-6094-4616-82B1-F14BB4B79B35}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A55">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A55">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4223,415 +6396,26 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A383309-6094-4616-82B1-F14BB4B79B35}">
-  <dimension ref="A1:B55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:B55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="45.25" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A55">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A55">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B69F92-3B87-4E91-B258-D3779E4BBA81}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="BD33" workbookViewId="0">
+      <selection activeCell="CB34" sqref="CB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5453,10 +7237,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:C29">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F29">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5464,7 +7248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07596212-E66D-464B-B6C4-EA21D4182659}">
   <dimension ref="A1:H330"/>
   <sheetViews>
@@ -7895,13 +9679,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B0E0F-8163-49B9-BBF2-4AFAB6F555BC}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8697,7 +10481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5D5447-AD65-4DBD-A7D1-BAD14C28FB68}">
   <dimension ref="A1:A50"/>
   <sheetViews>
@@ -8966,14 +10750,14 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A5B217-D08C-4E6D-B5A2-0BD17E0091BC}">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -9541,13 +11325,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:C48">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BBB25F-F0D8-45A9-AF72-D3B6C1D4A733}">
   <dimension ref="A1:B55"/>
   <sheetViews>
@@ -10006,7 +11790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81820C69-11D4-4E58-9DB2-7473E2D3CA1C}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -10343,720 +12127,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E32906-22D5-4384-96EE-D121882CD132}">
-  <dimension ref="A1:E78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" t="s">
-        <v>331</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" t="s">
-        <v>331</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>237</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>252</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>331</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" t="s">
-        <v>329</v>
-      </c>
-      <c r="D50" t="s">
-        <v>331</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>243</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>263</v>
-      </c>
-      <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
-        <v>329</v>
-      </c>
-      <c r="D74" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
-        <v>330</v>
-      </c>
-      <c r="D75" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C76" t="s">
-        <v>323</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>327</v>
-      </c>
-      <c r="D77" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C78" t="s">
-        <v>328</v>
-      </c>
-      <c r="D78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A3:E56">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B37:D73 B1:D35 C36:D36 B79:D1048576 B74:B78">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74:C78">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74:D78">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/00_config/xlsx/src.xlsx
+++ b/00_config/xlsx/src.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2766D9B9-7CEF-4C3B-89B3-FE15CCC1820C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1F298-D8B4-4C50-B82A-562346BE409B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load_cfg_my" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18281" uniqueCount="2901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18280" uniqueCount="2901">
   <si>
     <t>源系统</t>
   </si>
@@ -11423,7 +11423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -12197,11 +12197,9 @@
         <v>qmjjr_broker_SRC_t_user</v>
       </c>
       <c r="G28" s="11">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>87</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -29288,9 +29286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8854C189-BCF6-4770-B898-23F8068A4B46}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -47738,7 +47736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E2821-F940-4609-92C9-8B9E0687676C}">
   <dimension ref="A1:D2035"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/00_config/xlsx/src.xlsx
+++ b/00_config/xlsx/src.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1F298-D8B4-4C50-B82A-562346BE409B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D169918-0D24-44DF-8CC2-2718B97CB1FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="851" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load_cfg_my" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18280" uniqueCount="2901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18234" uniqueCount="2903">
   <si>
     <t>源系统</t>
   </si>
@@ -8776,6 +8776,14 @@
   </si>
   <si>
     <t>replace(replace(DefaultStation,char(10),''),char(13),'') as DefaultStation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR_Organization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12258,7 +12266,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13103,11 +13111,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07596212-E66D-464B-B6C4-EA21D4182659}">
-  <dimension ref="A1:K330"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K60"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13122,7 +13130,7 @@
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13147,11 +13155,11 @@
       <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>96</v>
       </c>
@@ -13177,11 +13185,8 @@
       <c r="H2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>96</v>
       </c>
@@ -13198,17 +13203,14 @@
         <v>192</v>
       </c>
       <c r="F3" s="12" t="str">
-        <f t="shared" ref="F3:F60" si="0">CONCATENATE(B3,"_SRC_",C3)</f>
+        <f t="shared" ref="F3:F62" si="0">CONCATENATE(B3,"_SRC_",C3)</f>
         <v>SYSWINETS_SRC_BANKNW</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>96</v>
       </c>
@@ -13234,11 +13236,8 @@
       <c r="H4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>96</v>
       </c>
@@ -13264,11 +13263,8 @@
       <c r="H5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>96</v>
       </c>
@@ -13294,11 +13290,8 @@
       <c r="H6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>96</v>
       </c>
@@ -13324,11 +13317,8 @@
       <c r="H7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>96</v>
       </c>
@@ -13354,11 +13344,8 @@
       <c r="H8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>96</v>
       </c>
@@ -13384,11 +13371,8 @@
       <c r="H9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>96</v>
       </c>
@@ -13414,11 +13398,8 @@
       <c r="H10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>96</v>
       </c>
@@ -13444,11 +13425,8 @@
       <c r="H11" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
@@ -13474,11 +13452,8 @@
       <c r="H12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -13502,11 +13477,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="K13" s="9" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>96</v>
       </c>
@@ -13530,11 +13502,8 @@
         <v>1</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="K14" s="9" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>96</v>
       </c>
@@ -13560,11 +13529,8 @@
       <c r="H15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -13590,11 +13556,8 @@
       <c r="H16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>96</v>
       </c>
@@ -13618,11 +13581,8 @@
         <v>1</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="K17" s="9" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
@@ -13646,11 +13606,8 @@
         <v>1</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="K18" s="9" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>96</v>
       </c>
@@ -13676,11 +13633,8 @@
       <c r="H19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>96</v>
       </c>
@@ -13706,11 +13660,8 @@
       <c r="H20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>96</v>
       </c>
@@ -13736,11 +13687,8 @@
       <c r="H21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>96</v>
       </c>
@@ -13769,11 +13717,8 @@
       <c r="I22" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
@@ -13799,11 +13744,8 @@
       <c r="H23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
@@ -13829,11 +13771,8 @@
       <c r="H24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>96</v>
       </c>
@@ -13859,11 +13798,8 @@
       <c r="H25" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>96</v>
       </c>
@@ -13889,11 +13825,8 @@
       <c r="H26" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>96</v>
       </c>
@@ -13919,11 +13852,8 @@
       <c r="H27" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>96</v>
       </c>
@@ -13949,11 +13879,8 @@
       <c r="H28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>96</v>
       </c>
@@ -13979,11 +13906,8 @@
       <c r="H29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>96</v>
       </c>
@@ -14009,11 +13933,8 @@
       <c r="H30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>96</v>
       </c>
@@ -14039,11 +13960,8 @@
       <c r="H31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>96</v>
       </c>
@@ -14069,11 +13987,8 @@
       <c r="H32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -14097,11 +14012,8 @@
         <v>1</v>
       </c>
       <c r="H33" s="11"/>
-      <c r="K33" s="9" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>96</v>
       </c>
@@ -14125,11 +14037,8 @@
         <v>1</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="K34" s="9" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>96</v>
       </c>
@@ -14155,11 +14064,8 @@
       <c r="H35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="9" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>96</v>
       </c>
@@ -14185,11 +14091,8 @@
       <c r="H36" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>96</v>
       </c>
@@ -14215,11 +14118,8 @@
       <c r="H37" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>96</v>
       </c>
@@ -14245,11 +14145,8 @@
       <c r="H38" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="9" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
@@ -14275,11 +14172,8 @@
       <c r="H39" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>96</v>
       </c>
@@ -14305,11 +14199,8 @@
       <c r="H40" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K40" s="9" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -14333,11 +14224,8 @@
         <v>1</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="K41" s="9" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>96</v>
       </c>
@@ -14364,11 +14252,8 @@
       <c r="I42" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>96</v>
       </c>
@@ -14394,11 +14279,8 @@
       <c r="H43" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>96</v>
       </c>
@@ -14422,11 +14304,8 @@
         <v>1</v>
       </c>
       <c r="H44" s="11"/>
-      <c r="K44" s="9" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>96</v>
       </c>
@@ -14450,11 +14329,8 @@
         <v>1</v>
       </c>
       <c r="H45" s="11"/>
-      <c r="K45" s="9" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>96</v>
       </c>
@@ -14478,11 +14354,8 @@
         <v>1</v>
       </c>
       <c r="H46" s="11"/>
-      <c r="K46" s="9" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
@@ -14508,11 +14381,8 @@
       <c r="H47" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>96</v>
       </c>
@@ -14536,11 +14406,8 @@
         <v>1</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="K48" s="9" t="s">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>96</v>
       </c>
@@ -14564,11 +14431,8 @@
         <v>1</v>
       </c>
       <c r="H49" s="11"/>
-      <c r="K49" s="9" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>96</v>
       </c>
@@ -14594,11 +14458,8 @@
       <c r="H50" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>96</v>
       </c>
@@ -14624,11 +14485,8 @@
       <c r="H51" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>96</v>
       </c>
@@ -14654,11 +14512,8 @@
       <c r="H52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>96</v>
       </c>
@@ -14684,11 +14539,8 @@
       <c r="H53" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>96</v>
       </c>
@@ -14712,11 +14564,8 @@
         <v>1</v>
       </c>
       <c r="H54" s="11"/>
-      <c r="K54" s="9" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>96</v>
       </c>
@@ -14742,11 +14591,8 @@
       <c r="H55" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>96</v>
       </c>
@@ -14770,11 +14616,8 @@
         <v>1</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="K56" s="9" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>96</v>
       </c>
@@ -14798,11 +14641,8 @@
         <v>1</v>
       </c>
       <c r="H57" s="11"/>
-      <c r="K57" s="9" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>96</v>
       </c>
@@ -14826,11 +14666,8 @@
         <v>1</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="K58" s="9" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
@@ -14854,11 +14691,8 @@
         <v>1</v>
       </c>
       <c r="H59" s="11"/>
-      <c r="K59" s="9" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>96</v>
       </c>
@@ -14882,20 +14716,68 @@
         <v>1</v>
       </c>
       <c r="H60" s="11"/>
-      <c r="K60" s="9" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINEOP_SRC_HR_Organization</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>SYSWINEOP_SRC_BillBookRelation</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H64" s="11"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.15">
@@ -15700,13 +15582,13 @@
   <autoFilter ref="A1:H331" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60" xr:uid="{FF36187D-4D52-44FF-B83E-46E0C7D56CAE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{FF36187D-4D52-44FF-B83E-46E0C7D56CAE}">
       <formula1>"Oracle,MySQL,SQL Server"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{8404FEAC-3848-4F6F-A4F9-2170BF67747C}">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A61:A1048576 A1" xr:uid="{BA013F42-295B-4612-9A3F-DDC07950DAF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A63:A1048576" xr:uid="{BA013F42-295B-4612-9A3F-DDC07950DAF7}">
       <formula1>"Oracle,MySQL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{CADA4037-9658-48F6-B2B0-129AB6711505}">
@@ -29286,9 +29168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8854C189-BCF6-4770-B898-23F8068A4B46}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -47736,8 +47618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E2821-F940-4609-92C9-8B9E0687676C}">
   <dimension ref="A1:D2035"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1983" workbookViewId="0">
+      <selection activeCell="D1991" sqref="D1991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -75606,7 +75488,7 @@
         <v>2125</v>
       </c>
       <c r="D1990" s="18" t="s">
-        <v>1838</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1991" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
